--- a/data/extracted_data/raw_round2/Diaz_2024_Fig_7.xlsx
+++ b/data/extracted_data/raw_round2/Diaz_2024_Fig_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B323A5-AEE8-284C-A40D-6064592075A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F8B323A5-AEE8-284C-A40D-6064592075A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5EC3344-114D-D446-90AF-CF4A523E5BD3}"/>
   <bookViews>
-    <workbookView xWindow="21820" yWindow="8100" windowWidth="27640" windowHeight="16940" xr2:uid="{AD9996EE-8242-E641-82E9-0E1F2E93400C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{AD9996EE-8242-E641-82E9-0E1F2E93400C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,13 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>toxticity</t>
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
 </sst>
 </file>
@@ -104,9 +104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -144,7 +144,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -250,7 +250,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,7 +403,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -413,15 +413,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>44470</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>44484</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>44501</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>44515</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>44531</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>44545</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>44197</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>44576</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>44593</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>44607</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>44621</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>44635</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>44652</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>44666</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>44682</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>44696</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>44713</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>44727</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>44743</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>44757</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>44774</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
         <v>44788</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>44819</v>

--- a/data/extracted_data/raw_round2/Diaz_2024_Fig_7.xlsx
+++ b/data/extracted_data/raw_round2/Diaz_2024_Fig_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F8B323A5-AEE8-284C-A40D-6064592075A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5EC3344-114D-D446-90AF-CF4A523E5BD3}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F8B323A5-AEE8-284C-A40D-6064592075A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BD67032-09C2-924F-9B04-AFA467543ECE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{AD9996EE-8242-E641-82E9-0E1F2E93400C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{AD9996EE-8242-E641-82E9-0E1F2E93400C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,13 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>toxticity</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -101,6 +101,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,7 +407,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -413,15 +417,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>44470</v>
@@ -432,7 +436,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>44484</v>
@@ -443,7 +447,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>44501</v>
@@ -454,7 +458,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>44515</v>
@@ -465,7 +469,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>44531</v>
@@ -476,7 +480,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>44545</v>
@@ -487,7 +491,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>44197</v>
@@ -498,7 +502,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>44576</v>
@@ -509,7 +513,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>44593</v>
@@ -520,7 +524,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>44607</v>
@@ -531,7 +535,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>44621</v>
@@ -542,7 +546,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>44635</v>
@@ -553,7 +557,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>44652</v>
@@ -564,7 +568,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>44666</v>
@@ -575,7 +579,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>44682</v>
@@ -586,7 +590,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>44696</v>
@@ -597,7 +601,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>44713</v>
@@ -608,7 +612,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>44727</v>
@@ -619,7 +623,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>44743</v>
@@ -630,7 +634,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>44757</v>
@@ -641,7 +645,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>44774</v>
@@ -652,7 +656,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>44788</v>
@@ -663,7 +667,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>44819</v>

--- a/data/extracted_data/raw_round2/Diaz_2024_Fig_7.xlsx
+++ b/data/extracted_data/raw_round2/Diaz_2024_Fig_7.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F8B323A5-AEE8-284C-A40D-6064592075A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BD67032-09C2-924F-9B04-AFA467543ECE}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{F8B323A5-AEE8-284C-A40D-6064592075A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A5D370-7F6A-6E42-9FFE-44BEC3BD615A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{AD9996EE-8242-E641-82E9-0E1F2E93400C}"/>
+    <workbookView xWindow="6360" yWindow="1520" windowWidth="28800" windowHeight="16140" xr2:uid="{AD9996EE-8242-E641-82E9-0E1F2E93400C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,18 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="4">
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
     <t>day</t>
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Depuration</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Uptake</t>
   </si>
 </sst>
 </file>
@@ -83,9 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,10 +108,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,275 +407,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4FB24E-C855-324D-A439-225B1DF79D08}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>44470</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>3.3519553072625503E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>44484</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C24" si="0">B3-$B$2</f>
+        <v>14</v>
+      </c>
+      <c r="D3">
         <v>6.7039106145251506E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>44501</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D4">
         <v>5.8659217877095E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>44515</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D5">
         <v>0.17597765363128501</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>44531</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D6">
         <v>0.19273743016759801</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>44545</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D7">
         <v>0.43575418994413401</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>44197</v>
-      </c>
-      <c r="C8">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D8">
         <v>2.51396648044694E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>44576</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="D9">
         <v>6.7039106145251506E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>44593</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="D10">
         <v>0.58659217877095005</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>44607</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="D11">
         <v>0.217877094972067</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>44621</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="D12">
         <v>0.35195530726257002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>44635</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="D13">
         <v>0.460893854748603</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>44652</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="D14">
         <v>3.6438524590163999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>44666</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="D15">
         <v>9.42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
         <v>44682</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="D16">
         <v>3.7127049180327898</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>44696</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="D17">
         <v>1.29050279329608</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>44713</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="D18">
         <v>2.2561475409836098</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>44727</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="D19">
         <v>3.7909836065573801</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>44743</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="D20">
         <v>1.08938547486033</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>44757</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="D21">
         <v>0.72067039106145203</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
         <v>44774</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="D22">
         <v>0.45251396648044601</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>44788</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="D23">
         <v>0.527932960893855</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
         <v>44819</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="D24">
         <v>0.29329608938547402</v>
       </c>
     </row>
